--- a/medicine/Psychotrope/Brasserie_Vanuxeem/Brasserie_Vanuxeem.xlsx
+++ b/medicine/Psychotrope/Brasserie_Vanuxeem/Brasserie_Vanuxeem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Vanuxeem est un grossiste de boissons située à Ploegsteert en Belgique faisant brasser 6 bières nommées Queue de Charrue. Cette entreprise est une brasserie de distribution.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Vanuxeem reprend la brasserie Gillebert, basée à Ploegsteert en 1906 et y développe une activité brassicole locale[1]. On compte une demi-douzaine de bières brassées dans la première moitié du XXe siècle[2].
-En 1966, l'outil de brassage devenant trop ancien, l'activité brassicole s'arrête et Vanuxeem oriente son activité vers l'entreposage[3].
-Ce n'est qu'en 1986 (année de la bière en Belgique) que Vanuxeem reprend son activité de brasseur, avec la Queue de Charrue, à l'origine uniquement la "brune" de type vieille brune flamande[3]. Le matériel de brassage n'étant pas disponible, c'est un collègue brasseur qui brasse pour Vanuxeem. En 2009, c'est à la brasserie Verhaeghe que le travail est délégué. La brasserie du Bocq produit la blonde et la triple alors que la brasserie Van Steenberge produit la triple
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Vanuxeem reprend la brasserie Gillebert, basée à Ploegsteert en 1906 et y développe une activité brassicole locale. On compte une demi-douzaine de bières brassées dans la première moitié du XXe siècle.
+En 1966, l'outil de brassage devenant trop ancien, l'activité brassicole s'arrête et Vanuxeem oriente son activité vers l'entreposage.
+Ce n'est qu'en 1986 (année de la bière en Belgique) que Vanuxeem reprend son activité de brasseur, avec la Queue de Charrue, à l'origine uniquement la "brune" de type vieille brune flamande. Le matériel de brassage n'étant pas disponible, c'est un collègue brasseur qui brasse pour Vanuxeem. En 2009, c'est à la brasserie Verhaeghe que le travail est délégué. La brasserie du Bocq produit la blonde et la triple alors que la brasserie Van Steenberge produit la triple
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors des Europeans Beer Star en 2018, la Queue de charrue blonde est élue meilleur bière blonde d'Europe[4]. En 2020, elle obtiens trois médailles d'or et deux d'argent au World Beer Awards[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors des Europeans Beer Star en 2018, la Queue de charrue blonde est élue meilleur bière blonde d'Europe. En 2020, elle obtiens trois médailles d'or et deux d'argent au World Beer Awards.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Queue de charrue bleue (blonde - 6,6°)
 Queue de charrue orange (ambrée - 5,5°)
@@ -611,7 +629,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Vanuxeem est aujourd'hui principalement un grossiste en boissons. Son activité de brassage, relativement récente, ne représente qu'une faible part de son activité.
 </t>
